--- a/Patrocinio/Base de datos patricinadores V2.xlsx
+++ b/Patrocinio/Base de datos patricinadores V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cirat/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\entre\Desktop\FTC-Into_The_Deep\Patrocinio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68285C38-92BB-2545-B23B-FACB7705E548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB07B717-1362-4A7F-B6AB-6E2B5F7E33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12460" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="140">
   <si>
     <t xml:space="preserve">Juan Valdez </t>
   </si>
@@ -528,9 +539,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -568,7 +579,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -674,7 +685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -816,7 +827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -827,20 +838,20 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="94.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" customWidth="1"/>
+    <col min="4" max="4" width="21.296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.69921875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="94.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -863,7 +874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -883,7 +894,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -904,7 +915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -928,7 +939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -949,7 +960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -973,7 +984,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -997,7 +1008,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1021,7 +1032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1042,7 +1053,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1063,7 +1074,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1108,7 +1119,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <f>+B11+1</f>
         <v>12</v>
@@ -1123,7 +1134,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1144,7 +1155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1162,7 +1173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1183,7 +1194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1195,7 +1206,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1216,7 +1227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1237,7 +1248,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1246,7 +1257,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1267,7 +1278,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1285,7 +1296,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1303,7 +1314,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1316,7 +1327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1335,7 +1346,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1348,7 +1359,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1361,7 +1372,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1382,7 +1393,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1395,7 +1406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1408,7 +1419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1427,7 +1438,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1442,7 +1453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1455,7 +1466,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1474,7 +1485,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1489,7 +1500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1502,7 +1513,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1523,7 +1534,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1544,7 +1555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1557,7 +1568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1576,7 +1587,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1595,7 +1606,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1616,7 +1627,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1629,7 +1640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1642,7 +1653,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1658,7 +1669,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1674,7 +1685,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1690,7 +1701,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1703,7 +1714,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1724,7 +1735,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1742,7 +1753,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1758,7 +1769,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1771,7 +1782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1787,7 +1798,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1808,7 +1819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1829,7 +1840,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1845,7 +1856,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1861,7 +1872,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1877,7 +1888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1893,7 +1904,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1908,7 +1919,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1923,7 +1934,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1938,7 +1949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1953,7 +1964,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1968,7 +1979,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1983,7 +1994,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -1998,7 +2009,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2013,7 +2024,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <f t="shared" ref="B68:B109" si="1">+B67+1</f>
         <v>67</v>
@@ -2031,7 +2042,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2047,7 +2058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2063,7 +2074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2081,7 +2092,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2096,7 +2107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2111,7 +2122,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2126,7 +2137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2144,7 +2155,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2156,7 +2167,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2171,7 +2182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2186,7 +2197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2201,7 +2212,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2216,7 +2227,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2231,7 +2242,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2246,7 +2257,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2258,7 +2269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2273,7 +2284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2288,7 +2299,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2301,7 +2312,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2316,7 +2327,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>136</v>
       </c>
@@ -2327,7 +2338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89">
         <f>+B87+1</f>
         <v>87</v>
@@ -2342,7 +2353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2357,7 +2368,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2372,7 +2383,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2381,7 +2392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2393,7 +2404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2414,7 +2425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2430,7 +2441,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2445,7 +2456,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2458,7 +2469,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2474,7 +2485,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2490,7 +2501,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2506,7 +2517,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2522,7 +2533,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2537,7 +2548,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2553,7 +2564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2569,7 +2580,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2582,7 +2593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2591,7 +2602,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2612,7 +2623,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2624,13 +2635,16 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="C109" t="s">
         <v>106</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Patrocinio/Base de datos patricinadores V2.xlsx
+++ b/Patrocinio/Base de datos patricinadores V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\entre\Desktop\FTC-Into_The_Deep\Patrocinio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB07B717-1362-4A7F-B6AB-6E2B5F7E33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC696158-EDD6-43F9-9E49-3EC791EEB82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="143">
   <si>
     <t xml:space="preserve">Juan Valdez </t>
   </si>
@@ -446,9 +446,6 @@
     <t>No dan patrocinios</t>
   </si>
   <si>
-    <t>ebay Colombia</t>
-  </si>
-  <si>
     <t>Esperando Respuesta</t>
   </si>
   <si>
@@ -456,6 +453,18 @@
   </si>
   <si>
     <t>Dell TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>Escribir correo a: servicliente@panamericana.com.co</t>
+  </si>
+  <si>
+    <t>Enviar correo a: talentinquiries@ebat.com</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>Enviar la información requerida por Instagram</t>
   </si>
 </sst>
 </file>
@@ -837,9 +846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1130,6 +1139,9 @@
       <c r="E13" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>135</v>
       </c>
@@ -2020,8 +2032,11 @@
       <c r="E67" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F67" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G67" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
@@ -2253,8 +2268,11 @@
       <c r="E82" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F82" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G82" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
@@ -2295,8 +2313,11 @@
       <c r="E85" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F85" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G85" s="2" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
@@ -2329,13 +2350,16 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F88" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G88" s="2" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
@@ -2364,6 +2388,9 @@
       <c r="E90" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F90" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G90" s="2" t="s">
         <v>95</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>79</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
@@ -2453,7 +2480,7 @@
         <v>79</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
@@ -2482,7 +2509,7 @@
         <v>79</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
@@ -2498,7 +2525,7 @@
         <v>79</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
@@ -2513,8 +2540,11 @@
       <c r="E100" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="F100" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="G100" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
@@ -2523,14 +2553,14 @@
         <v>99</v>
       </c>
       <c r="C101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.3">
@@ -2545,7 +2575,7 @@
         <v>79</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.3">
@@ -2561,7 +2591,7 @@
         <v>79</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.3">
@@ -2570,14 +2600,14 @@
         <v>102</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.3">

--- a/Patrocinio/Base de datos patricinadores V2.xlsx
+++ b/Patrocinio/Base de datos patricinadores V2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\entre\Desktop\FTC-Into_The_Deep\Patrocinio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\FTC Into-The-Deep\Patrocinio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB07B717-1362-4A7F-B6AB-6E2B5F7E33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DF2BAA-C36E-4C0B-9D67-DD05EA942C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="143">
   <si>
     <t xml:space="preserve">Juan Valdez </t>
   </si>
@@ -456,13 +456,22 @@
   </si>
   <si>
     <t>Dell TECHNOLOGIES</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Enviar correo a:  redessociales@mybosi.com</t>
+  </si>
+  <si>
+    <t>Escribir al correo:  carlos.becerra@servientrega.com o al número 3174279334</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -481,6 +490,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,6 +538,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,23 +856,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.296875" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="94.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="94.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -874,7 +895,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -894,7 +915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -915,7 +936,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -939,7 +960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -960,7 +981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -984,7 +1005,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1008,7 +1029,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1032,7 +1053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1053,7 +1074,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1074,7 +1095,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1095,7 +1116,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1115,11 +1136,11 @@
       <c r="F12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>+B11+1</f>
         <v>12</v>
@@ -1134,7 +1155,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1155,7 +1176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1173,7 +1194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1194,7 +1215,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1206,7 +1227,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1227,7 +1248,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1248,7 +1269,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1257,7 +1278,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1278,7 +1299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1296,7 +1317,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1314,7 +1335,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1327,7 +1348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1346,7 +1367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1359,7 +1380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1372,7 +1393,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1393,7 +1414,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1406,7 +1427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1419,7 +1440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1438,7 +1459,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1453,7 +1474,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1466,7 +1487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1485,7 +1506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1500,7 +1521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1513,7 +1534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1534,7 +1555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1555,7 +1576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1568,7 +1589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1587,7 +1608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1606,7 +1627,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1627,7 +1648,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1</v>
+      </c>
       <c r="B43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1637,10 +1661,13 @@
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1653,7 +1680,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1669,7 +1696,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1685,7 +1712,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1701,7 +1728,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1714,7 +1741,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1735,7 +1762,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1753,7 +1780,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1769,7 +1796,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1782,7 +1809,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1798,7 +1825,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1819,7 +1846,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1840,7 +1867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1856,7 +1883,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1872,7 +1899,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1888,7 +1915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1904,7 +1931,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1919,7 +1946,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1934,7 +1961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1949,7 +1976,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1964,7 +1991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1979,7 +2006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -1994,7 +2021,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2009,7 +2036,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2024,7 +2051,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" ref="B68:B109" si="1">+B67+1</f>
         <v>67</v>
@@ -2042,7 +2069,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2058,7 +2085,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2074,7 +2101,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2092,7 +2119,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2107,7 +2134,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2122,7 +2149,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2137,7 +2164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2155,7 +2182,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2167,7 +2194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2182,7 +2209,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2197,7 +2224,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2212,7 +2239,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2227,7 +2254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2242,7 +2269,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2257,7 +2284,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2269,7 +2296,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2284,7 +2311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2299,7 +2326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2312,7 +2339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2327,7 +2354,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>136</v>
       </c>
@@ -2338,7 +2365,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <f>+B87+1</f>
         <v>87</v>
@@ -2353,7 +2380,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2368,7 +2395,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2383,7 +2410,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2392,7 +2419,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2404,7 +2431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2425,7 +2452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2441,7 +2468,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2449,6 +2476,7 @@
       <c r="C96" t="s">
         <v>71</v>
       </c>
+      <c r="D96" s="6"/>
       <c r="E96" s="2" t="s">
         <v>79</v>
       </c>
@@ -2456,7 +2484,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2468,8 +2496,9 @@
       <c r="E97" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2485,7 +2514,10 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1</v>
+      </c>
       <c r="B99">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2498,10 +2530,10 @@
         <v>79</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2517,7 +2549,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2533,7 +2565,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2547,8 +2579,9 @@
       <c r="G102" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2564,7 +2597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2580,7 +2613,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2593,7 +2626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2601,8 +2634,9 @@
       <c r="C106" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2623,7 +2657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2635,7 +2669,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B109">
         <f t="shared" si="1"/>
         <v>107</v>

--- a/Patrocinio/Base de datos patricinadores V2.xlsx
+++ b/Patrocinio/Base de datos patricinadores V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\entre\Desktop\FTC-Into_The_Deep\Patrocinio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\FTC Into-The-Deep\Patrocinio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC696158-EDD6-43F9-9E49-3EC791EEB82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3459E5B-265E-4ECB-9EC6-0694771EF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="151">
   <si>
     <t xml:space="preserve">Juan Valdez </t>
   </si>
@@ -465,6 +465,30 @@
   </si>
   <si>
     <t>Enviar la información requerida por Instagram</t>
+  </si>
+  <si>
+    <t>RedEco Instituto Humbolt</t>
+  </si>
+  <si>
+    <t>Escribir a Ana Carolina Santos 311 5115725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minciencias </t>
+  </si>
+  <si>
+    <t>Hablar con la viceministra Ana Lucia Caicedo 314 7786724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programa antartico </t>
+  </si>
+  <si>
+    <t>Escribir a Carlos Olarte 313 8112338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ican </t>
+  </si>
+  <si>
+    <t>Contactar a Felipe Lozano 301 2221907</t>
   </si>
 </sst>
 </file>
@@ -844,23 +868,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.296875" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.19921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="94.19921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="94.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -883,7 +907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -903,7 +927,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -924,7 +948,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -948,7 +972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -969,7 +993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -993,7 +1017,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1017,7 +1041,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1041,7 +1065,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1083,7 +1107,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1104,7 +1128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1128,7 +1152,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>+B11+1</f>
         <v>12</v>
@@ -1146,7 +1170,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1167,7 +1191,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1185,7 +1209,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1206,7 +1230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1218,7 +1242,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1239,7 +1263,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1260,7 +1284,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1269,7 +1293,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1290,7 +1314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1308,7 +1332,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1326,7 +1350,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1339,7 +1363,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1358,7 +1382,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1371,7 +1395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1384,7 +1408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1405,7 +1429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1418,7 +1442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1431,7 +1455,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1450,7 +1474,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1465,7 +1489,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1478,7 +1502,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1497,7 +1521,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1512,7 +1536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1525,7 +1549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1546,7 +1570,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1567,7 +1591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1580,7 +1604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1599,7 +1623,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1618,7 +1642,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1639,7 +1663,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1652,7 +1676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1665,7 +1689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1681,7 +1705,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1697,7 +1721,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1713,7 +1737,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1726,7 +1750,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1747,7 +1771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1765,7 +1789,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1781,7 +1805,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1794,7 +1818,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1810,7 +1834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1831,7 +1855,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1852,7 +1876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1868,7 +1892,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1884,7 +1908,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1900,7 +1924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1916,7 +1940,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1931,7 +1955,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1946,7 +1970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1961,7 +1985,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -1976,7 +2000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1991,7 +2015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2006,7 +2030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2021,7 +2045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2039,7 +2063,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <f t="shared" ref="B68:B109" si="1">+B67+1</f>
         <v>67</v>
@@ -2057,7 +2081,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2073,7 +2097,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2089,7 +2113,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2107,7 +2131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2122,7 +2146,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2137,7 +2161,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2152,7 +2176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2170,7 +2194,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2182,7 +2206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2197,7 +2221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2212,7 +2236,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2227,7 +2251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2242,7 +2266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2257,7 +2281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2275,7 +2299,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2287,7 +2311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2302,7 +2326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2320,7 +2344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2333,7 +2357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2348,7 +2372,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>141</v>
       </c>
@@ -2362,7 +2386,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <f>+B87+1</f>
         <v>87</v>
@@ -2377,7 +2401,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2395,7 +2419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2410,7 +2434,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2419,7 +2443,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2431,7 +2455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2452,7 +2476,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2468,7 +2492,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2483,7 +2507,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2496,7 +2520,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2512,7 +2536,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2528,7 +2552,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2547,7 +2571,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2563,7 +2587,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2578,7 +2602,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2594,7 +2618,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2610,7 +2634,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2623,7 +2647,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2632,7 +2656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2653,7 +2677,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2665,7 +2689,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2675,6 +2699,50 @@
       </c>
       <c r="E109" s="2" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>143</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>145</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>149</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Patrocinio/Base de datos patricinadores V2.xlsx
+++ b/Patrocinio/Base de datos patricinadores V2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\FTC Into-The-Deep\Patrocinio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3459E5B-265E-4ECB-9EC6-0694771EF456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB8ED74-F3F1-473A-82EE-A16FA5F832A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$113</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="154">
   <si>
     <t xml:space="preserve">Juan Valdez </t>
   </si>
@@ -489,6 +492,15 @@
   </si>
   <si>
     <t>Contactar a Felipe Lozano 301 2221907</t>
+  </si>
+  <si>
+    <t>Respuesta Propuesta final</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Ptoyecto de innovación para preservar el patrimonio cultural sumergido. Galeón San José</t>
   </si>
 </sst>
 </file>
@@ -519,12 +531,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -539,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -554,6 +578,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,11 +894,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
-  <dimension ref="A1:G113"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -882,9 +909,10 @@
     <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="94.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -906,8 +934,11 @@
       <c r="G1" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -926,8 +957,11 @@
       <c r="G2" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -948,7 +982,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -972,7 +1006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -993,7 +1027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1017,7 +1051,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1041,7 +1075,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1065,7 +1099,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1086,7 +1120,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1107,7 +1141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1128,7 +1162,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1152,7 +1186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>+B11+1</f>
         <v>12</v>
@@ -1170,12 +1204,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1191,7 +1225,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1209,7 +1243,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1230,7 +1264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1242,7 +1276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1263,7 +1297,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1284,7 +1318,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1298,7 +1332,7 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1314,7 +1348,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1332,7 +1366,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1350,7 +1384,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1363,7 +1397,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1382,7 +1416,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1395,7 +1429,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1408,7 +1442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1429,7 +1463,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1442,7 +1476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1460,7 +1494,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="3"/>
@@ -1474,7 +1508,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1489,7 +1523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1502,7 +1536,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1521,7 +1555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1536,7 +1570,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1549,7 +1583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1570,7 +1604,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1591,7 +1625,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1623,7 +1657,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1642,7 +1676,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1663,7 +1697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1676,7 +1710,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1689,7 +1723,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1705,7 +1739,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1721,7 +1755,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1737,7 +1771,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1750,7 +1784,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1771,7 +1805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1789,7 +1823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1805,7 +1839,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1818,7 +1852,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1834,7 +1868,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1855,7 +1889,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1876,7 +1910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1892,7 +1926,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1908,7 +1942,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1924,7 +1958,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1940,7 +1974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1955,7 +1989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1970,7 +2004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -1985,7 +2019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2000,7 +2034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2015,7 +2049,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2030,7 +2064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2045,7 +2079,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2081,7 +2115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2097,7 +2131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2131,7 +2165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2146,7 +2180,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2161,7 +2195,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2176,7 +2210,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2194,7 +2228,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2206,7 +2240,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2221,7 +2255,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2236,7 +2270,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2251,7 +2285,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2266,7 +2300,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2299,7 +2333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2311,7 +2345,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2326,7 +2360,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2344,7 +2378,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2357,7 +2391,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2372,7 +2406,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>141</v>
       </c>
@@ -2386,7 +2420,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B89">
         <f>+B87+1</f>
         <v>87</v>
@@ -2419,7 +2453,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2434,7 +2468,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2443,7 +2477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2460,7 +2494,7 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D94" s="4" t="s">
@@ -2476,7 +2510,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2492,7 +2526,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2507,7 +2541,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2520,7 +2554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2536,7 +2570,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B99">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2552,7 +2586,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2571,7 +2605,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2587,7 +2621,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2602,7 +2636,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2618,7 +2652,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2634,7 +2668,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2647,7 +2681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2656,7 +2690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2677,7 +2711,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2689,7 +2723,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B109">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2701,44 +2735,47 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>108</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="6" t="s">
         <v>143</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>109</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>145</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>110</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>147</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>111</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="6" t="s">
         <v>149</v>
       </c>
       <c r="G113" s="2" t="s">
@@ -2746,6 +2783,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H113" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="No dan patrocinios"/>
+        <filter val="No están interesados"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G110">
     <sortCondition ref="A1:A110"/>
   </sortState>

--- a/Patrocinio/Base de datos patricinadores V2.xlsx
+++ b/Patrocinio/Base de datos patricinadores V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Desktop\FTC Into-The-Deep\Patrocinio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarasofia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB8ED74-F3F1-473A-82EE-A16FA5F832A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9037C27-3786-604B-B437-10453F26D3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25220" windowHeight="12540" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="154">
   <si>
     <t xml:space="preserve">Juan Valdez </t>
   </si>
@@ -461,9 +461,6 @@
     <t>Escribir correo a: servicliente@panamericana.com.co</t>
   </si>
   <si>
-    <t>Enviar correo a: talentinquiries@ebat.com</t>
-  </si>
-  <si>
     <t>eBay</t>
   </si>
   <si>
@@ -501,6 +498,9 @@
   </si>
   <si>
     <t>Ptoyecto de innovación para preservar el patrimonio cultural sumergido. Galeón San José</t>
+  </si>
+  <si>
+    <t>Enviar correo a: talentinquiries@ebay.com</t>
   </si>
 </sst>
 </file>
@@ -894,25 +894,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="94.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="94.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>134</v>
       </c>
@@ -935,10 +934,10 @@
         <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -958,10 +957,10 @@
         <v>98</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -981,8 +980,11 @@
       <c r="G3" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1027,7 +1029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1050,8 +1052,11 @@
       <c r="G6" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1099,7 +1104,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1119,8 +1124,11 @@
       <c r="G9" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1161,8 +1169,11 @@
       <c r="G11" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1186,7 +1197,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>+B11+1</f>
         <v>12</v>
@@ -1204,7 +1215,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1225,7 +1236,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1243,7 +1254,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1264,7 +1275,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1276,7 +1287,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1297,7 +1308,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1318,7 +1329,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1327,7 +1338,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1348,7 +1359,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1366,7 +1377,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1384,7 +1395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1397,7 +1408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1416,7 +1427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1429,7 +1440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1442,7 +1453,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1463,7 +1474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1476,7 +1487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1489,7 +1500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1508,7 +1519,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1523,7 +1534,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1536,7 +1547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1555,7 +1566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1570,7 +1581,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1583,7 +1594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1604,7 +1615,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1625,7 +1636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1638,7 +1649,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1657,7 +1668,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1676,7 +1687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1697,7 +1708,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1710,7 +1721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1723,7 +1734,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1739,7 +1750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1755,7 +1766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1771,7 +1782,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1784,7 +1795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1805,7 +1816,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1823,7 +1834,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1839,7 +1850,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1852,7 +1863,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -1868,7 +1879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -1889,7 +1900,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -1910,7 +1921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -1926,7 +1937,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -1942,7 +1953,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -1958,7 +1969,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -1974,7 +1985,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -1989,7 +2000,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2004,7 +2015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2019,7 +2030,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2034,7 +2045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2049,7 +2060,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2064,7 +2075,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2079,7 +2090,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2097,7 +2108,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68">
         <f t="shared" ref="B68:B109" si="1">+B67+1</f>
         <v>67</v>
@@ -2115,7 +2126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2131,7 +2142,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2147,7 +2158,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2165,7 +2176,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2180,7 +2191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2195,7 +2206,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2210,7 +2221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2228,7 +2239,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2240,7 +2251,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2255,7 +2266,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2270,7 +2281,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2285,7 +2296,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2300,7 +2311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2315,7 +2326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2333,7 +2344,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2345,7 +2356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2360,7 +2371,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2377,8 +2388,11 @@
       <c r="G85" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H85" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2391,7 +2405,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2406,9 +2420,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>79</v>
@@ -2417,10 +2431,13 @@
         <v>79</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89">
         <f>+B87+1</f>
         <v>87</v>
@@ -2435,7 +2452,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2453,7 +2470,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2468,7 +2485,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="92" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2477,7 +2494,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B93">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2489,7 +2506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B94">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2510,7 +2527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B95">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2526,7 +2543,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2541,7 +2558,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2554,7 +2571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="98" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2570,7 +2587,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="99" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2586,7 +2603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="100" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2602,10 +2619,10 @@
         <v>79</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2621,7 +2638,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2636,7 +2653,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2652,7 +2669,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2668,7 +2685,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="105" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2681,7 +2698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2690,7 +2707,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="107" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2711,7 +2728,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2723,7 +2740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2735,62 +2752,55 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>108</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>109</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>110</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G112" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113">
         <v>111</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>150</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H113" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="No dan patrocinios"/>
-        <filter val="No están interesados"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H113" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G110">
     <sortCondition ref="A1:A110"/>
   </sortState>
